--- a/Datos CO2 vs IMESI 2023.xlsx
+++ b/Datos CO2 vs IMESI 2023.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMESI [%]</t>
+          <t>% IMESI</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Q1 (25%)</t>
+          <t>Q1 (25%) CO2 (g/km)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mediana (50%)</t>
+          <t>Mediana (50%) CO2 (g/km)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q3 (75%)</t>
+          <t>Q3 (75%) CO2 (g/km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,17 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Whisker inferior</t>
+          <t>Valor extremo inferior CO2 (g/km)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Whisker superior</t>
+          <t>Valor extremo superior CO2 (g/km)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Outliers</t>
+          <t>Valores atípicos CO2 (g/km)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Media_Ponderada_CO2</t>
+          <t>Mediana ponderada por ventas CO2 (g/km)</t>
         </is>
       </c>
     </row>

--- a/Datos CO2 vs IMESI 2023.xlsx
+++ b/Datos CO2 vs IMESI 2023.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Valor extremo inferior CO2 (g/km)</t>
+          <t>Valor límite inferior CO2 (g/km)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Valor extremo superior CO2 (g/km)</t>
+          <t>Valor límite superior CO2 (g/km)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Mediana ponderada por ventas CO2 (g/km)</t>
+          <t>CO₂ promedio ponderado por ventas (g/km)</t>
         </is>
       </c>
     </row>
